--- a/lil-copilot-training-dataset-start.xlsx
+++ b/lil-copilot-training-dataset-start.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\lil-copilot-training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\lil-copilot-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93449BF3-4E9F-40E3-9AA9-607051AEE737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F703F7-1765-4032-BFF5-CD971F1FA24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21803" yWindow="1635" windowWidth="17213" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="course-production" sheetId="1" r:id="rId1"/>
     <sheet name="content-trends" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'content-trends'!$A$1:$F$17</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Course Number</t>
   </si>
@@ -262,13 +265,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,14 +582,15 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -598,10 +605,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -627,10 +634,10 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>45051</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>45587</v>
       </c>
       <c r="E2">
@@ -656,10 +663,10 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>44706</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>45585</v>
       </c>
       <c r="E3">
@@ -685,10 +692,10 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>44817</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>45020</v>
       </c>
       <c r="E4">
@@ -714,10 +721,10 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>45359</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>45389</v>
       </c>
       <c r="E5">
@@ -743,10 +750,10 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>45036</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>45600</v>
       </c>
       <c r="E6">
@@ -772,10 +779,10 @@
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>45302</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>45480</v>
       </c>
       <c r="E7">
@@ -801,10 +808,10 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>45204</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>45241</v>
       </c>
       <c r="E8">
@@ -830,10 +837,10 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>45359</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>45393</v>
       </c>
       <c r="E9">
@@ -859,10 +866,10 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>45094</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>45238</v>
       </c>
       <c r="E10">
@@ -888,10 +895,10 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>44723</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>45401</v>
       </c>
       <c r="E11">
@@ -917,10 +924,10 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>44988</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>45568</v>
       </c>
       <c r="E12">
@@ -946,10 +953,10 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>45123</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>45491</v>
       </c>
       <c r="E13">
@@ -975,10 +982,10 @@
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>45122</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>45372</v>
       </c>
       <c r="E14">
@@ -1004,10 +1011,10 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>44948</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>45327</v>
       </c>
       <c r="E15">
@@ -1033,10 +1040,10 @@
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>44729</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>45287</v>
       </c>
       <c r="E16">
@@ -1062,10 +1069,10 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>45361</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>45534</v>
       </c>
       <c r="E17">
@@ -1091,10 +1098,10 @@
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>44805</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>45609</v>
       </c>
       <c r="E18">
@@ -1120,10 +1127,10 @@
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>45002</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>45721</v>
       </c>
       <c r="E19">
@@ -1149,10 +1156,10 @@
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>44635</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>44768</v>
       </c>
       <c r="E20">
@@ -1178,10 +1185,10 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>45345</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>45346</v>
       </c>
       <c r="E21">
@@ -1211,7 +1218,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1288,7 +1295,7 @@
       <c r="E2">
         <v>150</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H2">
@@ -1314,12 +1321,6 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
@@ -1329,7 +1330,7 @@
       <c r="E3">
         <v>160</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>4.7E-2</v>
       </c>
       <c r="H3">
@@ -1355,23 +1356,17 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="E4">
-        <v>170</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>165</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1396,23 +1391,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="E5">
-        <v>175</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>170</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1438,22 +1427,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="E6">
-        <v>165</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>170</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1478,23 +1467,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="E7">
-        <v>170</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>175</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1519,12 +1502,6 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -1534,7 +1511,7 @@
       <c r="E8">
         <v>180</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H8">
@@ -1560,12 +1537,6 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -1575,7 +1546,7 @@
       <c r="E9">
         <v>185</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="H9">
@@ -1616,17 +1587,11 @@
       <c r="E10">
         <v>140</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -1636,17 +1601,11 @@
       <c r="E11">
         <v>145</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -1656,17 +1615,11 @@
       <c r="E12">
         <v>150</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>6.2E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
@@ -1676,7 +1629,7 @@
       <c r="E13">
         <v>155</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>6.3E-2</v>
       </c>
     </row>
@@ -1696,17 +1649,11 @@
       <c r="E14">
         <v>120</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
@@ -1716,17 +1663,11 @@
       <c r="E15">
         <v>125</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
@@ -1736,17 +1677,11 @@
       <c r="E16">
         <v>130</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -1756,7 +1691,7 @@
       <c r="E17">
         <v>135</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
